--- a/input/Htest.xlsx
+++ b/input/Htest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ExcelTool\ExcelTool\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B4A163-3C58-4767-A724-A332BF173B04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64AF7988-68D9-4239-B119-8994C311D74A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4224" yWindow="108" windowWidth="30696" windowHeight="16572" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="横表测试|Htest" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="57">
   <si>
     <t>cs</t>
   </si>
@@ -193,6 +193,26 @@
   </si>
   <si>
     <t>1-2,3-12</t>
+  </si>
+  <si>
+    <t>strMapTest</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>注释7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>map[string,string]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a-b</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a-c,c-d</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -641,7 +661,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I18" sqref="I18"/>
+      <selection pane="bottomLeft" activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -650,8 +670,7 @@
     <col min="2" max="2" width="14.44140625" style="3" customWidth="1"/>
     <col min="3" max="3" width="11" style="3" customWidth="1"/>
     <col min="4" max="5" width="18.44140625" style="3" customWidth="1"/>
-    <col min="6" max="7" width="13.44140625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="21.88671875" style="4" customWidth="1"/>
+    <col min="6" max="8" width="13.44140625" style="3" customWidth="1"/>
     <col min="9" max="9" width="8.6640625" style="3" customWidth="1"/>
     <col min="10" max="10" width="15.5546875" style="3" customWidth="1"/>
     <col min="11" max="11" width="12" style="3" customWidth="1"/>
@@ -696,7 +715,9 @@
       <c r="G1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="5"/>
+      <c r="H1" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
@@ -742,7 +763,9 @@
       <c r="G2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="5"/>
+      <c r="H2" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
@@ -788,7 +811,9 @@
       <c r="G3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="5"/>
+      <c r="H3" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
@@ -834,7 +859,9 @@
       <c r="G4" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="6"/>
+      <c r="H4" s="6" t="s">
+        <v>53</v>
+      </c>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
@@ -880,6 +907,9 @@
       <c r="G5" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="H5" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="O5" s="9"/>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.3">
@@ -904,6 +934,9 @@
       <c r="G6" s="4" t="s">
         <v>43</v>
       </c>
+      <c r="H6" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="O6" s="9"/>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.3">
@@ -928,6 +961,9 @@
       <c r="G7" s="4" t="s">
         <v>44</v>
       </c>
+      <c r="H7" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="O7" s="9"/>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.3">
@@ -952,6 +988,9 @@
       <c r="G8" s="4" t="s">
         <v>45</v>
       </c>
+      <c r="H8" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="O8" s="9"/>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.3">
@@ -976,6 +1015,9 @@
       <c r="G9" s="4" t="s">
         <v>46</v>
       </c>
+      <c r="H9" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="O9" s="9"/>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.3">
@@ -1000,6 +1042,9 @@
       <c r="G10" s="4" t="s">
         <v>47</v>
       </c>
+      <c r="H10" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="O10" s="9"/>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.3">
@@ -1024,6 +1069,9 @@
       <c r="G11" s="4" t="s">
         <v>48</v>
       </c>
+      <c r="H11" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="O11" s="9"/>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.3">
@@ -1048,6 +1096,9 @@
       <c r="G12" s="4" t="s">
         <v>49</v>
       </c>
+      <c r="H12" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="O12" s="9"/>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.3">
@@ -1072,6 +1123,9 @@
       <c r="G13" s="4" t="s">
         <v>50</v>
       </c>
+      <c r="H13" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="O13" s="9"/>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.3">
@@ -1095,6 +1149,9 @@
       </c>
       <c r="G14" s="4" t="s">
         <v>51</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="O14" s="9"/>
       <c r="AC14" s="11"/>
